--- a/public/result/result-5d36db97a897080c37771238.xlsx
+++ b/public/result/result-5d36db97a897080c37771238.xlsx
@@ -11,7 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -29,6 +35,12 @@
   </si>
   <si>
     <t>Max Marks</t>
+  </si>
+  <si>
+    <t>post-test</t>
+  </si>
+  <si>
+    <t>asdfggh</t>
   </si>
   <si>
     <t>asdfg</t>
@@ -423,17 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="50" outlineLevel="1" collapsed="1" customWidth="1"/>
-    <col min="4" max="4" width="100" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="5" max="5" width="35" outlineLevel="1" collapsed="1" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,64 +465,88 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>911234567892</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>911234567892</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
+        <v>913254265372</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>913254265372</v>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
         <v>911243646454</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="H4">
         <v>11</v>
       </c>
     </row>
